--- a/debug/WLD_debug.xlsx
+++ b/debug/WLD_debug.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE997"/>
+  <dimension ref="A1:AE1004"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -101551,13 +101551,13 @@
         <v>0.886</v>
       </c>
       <c r="C997" t="n">
-        <v>0.909</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D997" t="n">
         <v>0.87</v>
       </c>
       <c r="E997" t="n">
-        <v>0.896</v>
+        <v>0.911</v>
       </c>
       <c r="F997" t="inlineStr">
         <is>
@@ -101595,7 +101595,7 @@
         <v>0.821</v>
       </c>
       <c r="Q997" t="n">
-        <v>10.718636</v>
+        <v>13.6419</v>
       </c>
       <c r="R997" t="n">
         <v>37.4</v>
@@ -101640,6 +101640,713 @@
       </c>
       <c r="AE997" t="n">
         <v>0.87</v>
+      </c>
+    </row>
+    <row r="998">
+      <c r="A998" t="inlineStr">
+        <is>
+          <t>2025-10-19</t>
+        </is>
+      </c>
+      <c r="B998" t="n">
+        <v>0.912</v>
+      </c>
+      <c r="C998" t="n">
+        <v>0.944</v>
+      </c>
+      <c r="D998" t="n">
+        <v>0.891</v>
+      </c>
+      <c r="E998" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="F998" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G998" t="b">
+        <v>1</v>
+      </c>
+      <c r="H998" t="n">
+        <v>4</v>
+      </c>
+      <c r="I998" t="n">
+        <v/>
+      </c>
+      <c r="J998" t="n">
+        <v/>
+      </c>
+      <c r="K998" t="n">
+        <v/>
+      </c>
+      <c r="L998" t="n">
+        <v/>
+      </c>
+      <c r="M998" t="n">
+        <v/>
+      </c>
+      <c r="N998" t="n">
+        <v/>
+      </c>
+      <c r="O998" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="P998" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>14.98173</v>
+      </c>
+      <c r="R998" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S998" t="n">
+        <v>6</v>
+      </c>
+      <c r="T998" t="n">
+        <v>1.23816</v>
+      </c>
+      <c r="U998" t="n">
+        <v>1.14972</v>
+      </c>
+      <c r="V998" t="n">
+        <v>1.01706</v>
+      </c>
+      <c r="W998" t="n">
+        <v>0.90651</v>
+      </c>
+      <c r="X998" t="n">
+        <v>0.77385</v>
+      </c>
+      <c r="Y998" t="n">
+        <v>0.61908</v>
+      </c>
+      <c r="Z998" t="n">
+        <v>0.46431</v>
+      </c>
+      <c r="AA998" t="n">
+        <v>0.42009</v>
+      </c>
+      <c r="AB998" t="n">
+        <v>1.196754</v>
+      </c>
+      <c r="AC998" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="AD998" t="n">
+        <v>0.90651</v>
+      </c>
+      <c r="AE998" t="n">
+        <v>0.891</v>
+      </c>
+    </row>
+    <row r="999">
+      <c r="A999" t="inlineStr">
+        <is>
+          <t>2025-10-20</t>
+        </is>
+      </c>
+      <c r="B999" t="n">
+        <v>0.917</v>
+      </c>
+      <c r="C999" t="n">
+        <v>0.967</v>
+      </c>
+      <c r="D999" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="E999" t="n">
+        <v>0.888</v>
+      </c>
+      <c r="F999" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G999" t="b">
+        <v>1</v>
+      </c>
+      <c r="H999" t="n">
+        <v>4</v>
+      </c>
+      <c r="I999" t="n">
+        <v/>
+      </c>
+      <c r="J999" t="n">
+        <v/>
+      </c>
+      <c r="K999" t="n">
+        <v/>
+      </c>
+      <c r="L999" t="n">
+        <v/>
+      </c>
+      <c r="M999" t="n">
+        <v/>
+      </c>
+      <c r="N999" t="n">
+        <v/>
+      </c>
+      <c r="O999" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0.821</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>17.783191</v>
+      </c>
+      <c r="R999" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S999" t="n">
+        <v>6</v>
+      </c>
+      <c r="T999" t="n">
+        <v>1.23816</v>
+      </c>
+      <c r="U999" t="n">
+        <v>1.14972</v>
+      </c>
+      <c r="V999" t="n">
+        <v>1.01706</v>
+      </c>
+      <c r="W999" t="n">
+        <v>0.90651</v>
+      </c>
+      <c r="X999" t="n">
+        <v>0.77385</v>
+      </c>
+      <c r="Y999" t="n">
+        <v>0.61908</v>
+      </c>
+      <c r="Z999" t="n">
+        <v>0.46431</v>
+      </c>
+      <c r="AA999" t="n">
+        <v>0.42009</v>
+      </c>
+      <c r="AB999" t="n">
+        <v>1.196754</v>
+      </c>
+      <c r="AC999" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="AD999" t="n">
+        <v>0.90651</v>
+      </c>
+      <c r="AE999" t="n">
+        <v>0.878</v>
+      </c>
+    </row>
+    <row r="1000">
+      <c r="A1000" t="inlineStr">
+        <is>
+          <t>2025-10-21</t>
+        </is>
+      </c>
+      <c r="B1000" t="n">
+        <v>0.887</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>0.897</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="F1000" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G1000" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1000" t="n">
+        <v/>
+      </c>
+      <c r="J1000" t="n">
+        <v/>
+      </c>
+      <c r="K1000" t="n">
+        <v/>
+      </c>
+      <c r="L1000" t="n">
+        <v/>
+      </c>
+      <c r="M1000" t="n">
+        <v/>
+      </c>
+      <c r="N1000" t="n">
+        <v/>
+      </c>
+      <c r="O1000" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>10.740741</v>
+      </c>
+      <c r="R1000" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S1000" t="n">
+        <v>6</v>
+      </c>
+      <c r="T1000" t="n">
+        <v>1.23816</v>
+      </c>
+      <c r="U1000" t="n">
+        <v>1.14972</v>
+      </c>
+      <c r="V1000" t="n">
+        <v>1.01706</v>
+      </c>
+      <c r="W1000" t="n">
+        <v>0.90651</v>
+      </c>
+      <c r="X1000" t="n">
+        <v>0.77385</v>
+      </c>
+      <c r="Y1000" t="n">
+        <v>0.61908</v>
+      </c>
+      <c r="Z1000" t="n">
+        <v>0.46431</v>
+      </c>
+      <c r="AA1000" t="n">
+        <v>0.42009</v>
+      </c>
+      <c r="AB1000" t="n">
+        <v>1.196754</v>
+      </c>
+      <c r="AC1000" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD1000" t="n">
+        <v>0.46431</v>
+      </c>
+      <c r="AE1000" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="1001">
+      <c r="A1001" t="inlineStr">
+        <is>
+          <t>2025-10-22</t>
+        </is>
+      </c>
+      <c r="B1001" t="n">
+        <v>0.844</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>0.839</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="F1001" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G1001" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1001" t="n">
+        <v/>
+      </c>
+      <c r="J1001" t="n">
+        <v/>
+      </c>
+      <c r="K1001" t="n">
+        <v/>
+      </c>
+      <c r="L1001" t="n">
+        <v/>
+      </c>
+      <c r="M1001" t="n">
+        <v/>
+      </c>
+      <c r="N1001" t="n">
+        <v/>
+      </c>
+      <c r="O1001" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>7.530864</v>
+      </c>
+      <c r="R1001" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S1001" t="n">
+        <v>6</v>
+      </c>
+      <c r="T1001" t="n">
+        <v>1.23816</v>
+      </c>
+      <c r="U1001" t="n">
+        <v>1.14972</v>
+      </c>
+      <c r="V1001" t="n">
+        <v>1.01706</v>
+      </c>
+      <c r="W1001" t="n">
+        <v>0.90651</v>
+      </c>
+      <c r="X1001" t="n">
+        <v>0.77385</v>
+      </c>
+      <c r="Y1001" t="n">
+        <v>0.61908</v>
+      </c>
+      <c r="Z1001" t="n">
+        <v>0.46431</v>
+      </c>
+      <c r="AA1001" t="n">
+        <v>0.42009</v>
+      </c>
+      <c r="AB1001" t="n">
+        <v>1.196754</v>
+      </c>
+      <c r="AC1001" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD1001" t="n">
+        <v>0.46431</v>
+      </c>
+      <c r="AE1001" t="n">
+        <v>0.839</v>
+      </c>
+    </row>
+    <row r="1002">
+      <c r="A1002" t="inlineStr">
+        <is>
+          <t>2025-10-23</t>
+        </is>
+      </c>
+      <c r="B1002" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>0.911</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>0.852</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>0.896</v>
+      </c>
+      <c r="F1002" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G1002" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1002" t="n">
+        <v/>
+      </c>
+      <c r="J1002" t="n">
+        <v/>
+      </c>
+      <c r="K1002" t="n">
+        <v/>
+      </c>
+      <c r="L1002" t="n">
+        <v/>
+      </c>
+      <c r="M1002" t="n">
+        <v/>
+      </c>
+      <c r="N1002" t="n">
+        <v/>
+      </c>
+      <c r="O1002" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>12.469136</v>
+      </c>
+      <c r="R1002" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S1002" t="n">
+        <v>6</v>
+      </c>
+      <c r="T1002" t="n">
+        <v>1.23816</v>
+      </c>
+      <c r="U1002" t="n">
+        <v>1.14972</v>
+      </c>
+      <c r="V1002" t="n">
+        <v>1.01706</v>
+      </c>
+      <c r="W1002" t="n">
+        <v>0.90651</v>
+      </c>
+      <c r="X1002" t="n">
+        <v>0.77385</v>
+      </c>
+      <c r="Y1002" t="n">
+        <v>0.61908</v>
+      </c>
+      <c r="Z1002" t="n">
+        <v>0.46431</v>
+      </c>
+      <c r="AA1002" t="n">
+        <v>0.42009</v>
+      </c>
+      <c r="AB1002" t="n">
+        <v>1.196754</v>
+      </c>
+      <c r="AC1002" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="AD1002" t="n">
+        <v>0.90651</v>
+      </c>
+      <c r="AE1002" t="n">
+        <v>0.852</v>
+      </c>
+    </row>
+    <row r="1003">
+      <c r="A1003" t="inlineStr">
+        <is>
+          <t>2025-10-24</t>
+        </is>
+      </c>
+      <c r="B1003" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>0.902</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>0.871</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="F1003" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G1003" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1003" t="n">
+        <v/>
+      </c>
+      <c r="J1003" t="n">
+        <v/>
+      </c>
+      <c r="K1003" t="n">
+        <v/>
+      </c>
+      <c r="L1003" t="n">
+        <v/>
+      </c>
+      <c r="M1003" t="n">
+        <v/>
+      </c>
+      <c r="N1003" t="n">
+        <v/>
+      </c>
+      <c r="O1003" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>11.358025</v>
+      </c>
+      <c r="R1003" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S1003" t="n">
+        <v>6</v>
+      </c>
+      <c r="T1003" t="n">
+        <v>1.23816</v>
+      </c>
+      <c r="U1003" t="n">
+        <v>1.14972</v>
+      </c>
+      <c r="V1003" t="n">
+        <v>1.01706</v>
+      </c>
+      <c r="W1003" t="n">
+        <v>0.90651</v>
+      </c>
+      <c r="X1003" t="n">
+        <v>0.77385</v>
+      </c>
+      <c r="Y1003" t="n">
+        <v>0.61908</v>
+      </c>
+      <c r="Z1003" t="n">
+        <v>0.46431</v>
+      </c>
+      <c r="AA1003" t="n">
+        <v>0.42009</v>
+      </c>
+      <c r="AB1003" t="n">
+        <v>1.196754</v>
+      </c>
+      <c r="AC1003" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AD1003" t="n">
+        <v>0.46431</v>
+      </c>
+      <c r="AE1003" t="n">
+        <v>0.871</v>
+      </c>
+    </row>
+    <row r="1004">
+      <c r="A1004" t="inlineStr">
+        <is>
+          <t>2025-10-25</t>
+        </is>
+      </c>
+      <c r="B1004" t="n">
+        <v>0.894</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>0.958</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>0.878</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+      <c r="F1004" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="G1004" t="b">
+        <v>1</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1004" t="n">
+        <v/>
+      </c>
+      <c r="J1004" t="n">
+        <v/>
+      </c>
+      <c r="K1004" t="n">
+        <v/>
+      </c>
+      <c r="L1004" t="n">
+        <v/>
+      </c>
+      <c r="M1004" t="n">
+        <v/>
+      </c>
+      <c r="N1004" t="n">
+        <v/>
+      </c>
+      <c r="O1004" t="n">
+        <v>2.211</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>18.271605</v>
+      </c>
+      <c r="R1004" t="n">
+        <v>37.4</v>
+      </c>
+      <c r="S1004" t="n">
+        <v>6</v>
+      </c>
+      <c r="T1004" t="n">
+        <v>1.23816</v>
+      </c>
+      <c r="U1004" t="n">
+        <v>1.14972</v>
+      </c>
+      <c r="V1004" t="n">
+        <v>1.01706</v>
+      </c>
+      <c r="W1004" t="n">
+        <v>0.90651</v>
+      </c>
+      <c r="X1004" t="n">
+        <v>0.77385</v>
+      </c>
+      <c r="Y1004" t="n">
+        <v>0.61908</v>
+      </c>
+      <c r="Z1004" t="n">
+        <v>0.46431</v>
+      </c>
+      <c r="AA1004" t="n">
+        <v>0.42009</v>
+      </c>
+      <c r="AB1004" t="n">
+        <v>1.196754</v>
+      </c>
+      <c r="AC1004" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="AD1004" t="n">
+        <v>0.90651</v>
+      </c>
+      <c r="AE1004" t="n">
+        <v>0.878</v>
       </c>
     </row>
   </sheetData>
